--- a/data/full_data/nasdaq.xlsx
+++ b/data/full_data/nasdaq.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>CCP</t>
   </si>
@@ -26,9 +26,6 @@
     <t>clearning service</t>
   </si>
   <si>
-    <t>currency</t>
-  </si>
-  <si>
     <t>4.1.1</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
   </si>
   <si>
     <t>Financial Markets</t>
-  </si>
-  <si>
-    <t>EUR</t>
   </si>
   <si>
     <t>Commodities</t>
@@ -498,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD34"/>
+  <dimension ref="A1:AC34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +500,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:29">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,1595 +585,1541 @@
       <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:29">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
+      <c r="E2" t="n">
+        <v>9845579</v>
       </c>
       <c r="F2" t="n">
-        <v>9845579</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13503158</v>
       </c>
       <c r="H2" t="n">
-        <v>13503158</v>
+        <v>244051197</v>
       </c>
       <c r="I2" t="n">
-        <v>244051197</v>
+        <v>270511302</v>
       </c>
       <c r="J2" t="n">
-        <v>270511302</v>
+        <v>1829206</v>
       </c>
       <c r="K2" t="n">
-        <v>1829206</v>
+        <v>4062640</v>
       </c>
       <c r="L2" t="n">
-        <v>4062640</v>
+        <v>186444191</v>
       </c>
       <c r="M2" t="n">
         <v>186444191</v>
       </c>
       <c r="N2" t="n">
-        <v>186444191</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>243780879</v>
       </c>
       <c r="P2" t="n">
-        <v>243780879</v>
+        <v>193244037</v>
       </c>
       <c r="Q2" t="n">
-        <v>193244037</v>
+        <v>1925218058</v>
       </c>
       <c r="R2" t="n">
-        <v>1925218058</v>
+        <v>3203886819</v>
       </c>
       <c r="S2" t="n">
-        <v>3203886819</v>
+        <v>4597616605</v>
       </c>
       <c r="T2" t="n">
-        <v>4597616605</v>
+        <v>4066407016</v>
       </c>
       <c r="U2" t="n">
-        <v>4066407016</v>
+        <v>18</v>
       </c>
       <c r="V2" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="W2" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>4157</v>
       </c>
       <c r="Y2" t="n">
-        <v>4157</v>
+        <v>40</v>
       </c>
       <c r="Z2" t="n">
-        <v>40</v>
+        <v>9171018247</v>
       </c>
       <c r="AA2" t="n">
-        <v>9171018247</v>
+        <v>2854049274</v>
       </c>
       <c r="AB2" t="n">
-        <v>2854049274</v>
+        <v>298874612610</v>
       </c>
       <c r="AC2" t="n">
-        <v>298874612610</v>
-      </c>
-      <c r="AD2" t="n">
         <v>8627850606</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:29">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
       <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4338089</v>
       </c>
       <c r="F3" t="n">
-        <v>4338089</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>6571573</v>
       </c>
       <c r="H3" t="n">
-        <v>6571573</v>
+        <v>97750000</v>
       </c>
       <c r="I3" t="n">
-        <v>97750000</v>
+        <v>117975262</v>
       </c>
       <c r="J3" t="n">
-        <v>117975262</v>
+        <v>50268661</v>
       </c>
       <c r="K3" t="n">
-        <v>50268661</v>
+        <v>23790196</v>
       </c>
       <c r="L3" t="n">
-        <v>23790196</v>
+        <v>85000000</v>
       </c>
       <c r="M3" t="n">
         <v>85000000</v>
       </c>
       <c r="N3" t="n">
-        <v>85000000</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>98775039</v>
       </c>
       <c r="P3" t="n">
-        <v>98775039</v>
+        <v>78221458</v>
       </c>
       <c r="Q3" t="n">
-        <v>78221458</v>
+        <v>915726566</v>
       </c>
       <c r="R3" t="n">
-        <v>915726566</v>
+        <v>1559233668</v>
       </c>
       <c r="S3" t="n">
-        <v>1559233668</v>
+        <v>2026458728</v>
       </c>
       <c r="T3" t="n">
-        <v>2026458728</v>
+        <v>1949452721</v>
       </c>
       <c r="U3" t="n">
-        <v>1949452721</v>
+        <v>13</v>
       </c>
       <c r="V3" t="n">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="W3" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="Y3" t="n">
-        <v>234</v>
+        <v>179</v>
       </c>
       <c r="Z3" t="n">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>151795043</v>
       </c>
       <c r="AB3" t="n">
-        <v>151795043</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
         <v>8993855865</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:29">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
       <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
         <v>32</v>
       </c>
+      <c r="E4" t="n">
+        <v>481915</v>
+      </c>
       <c r="F4" t="n">
-        <v>481915</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>148389</v>
       </c>
       <c r="H4" t="n">
-        <v>148389</v>
+        <v>5131474</v>
       </c>
       <c r="I4" t="n">
-        <v>5131474</v>
+        <v>8071023</v>
       </c>
       <c r="J4" t="n">
-        <v>8071023</v>
+        <v>3460309</v>
       </c>
       <c r="K4" t="n">
-        <v>3460309</v>
+        <v>1698117</v>
       </c>
       <c r="L4" t="n">
-        <v>1698117</v>
+        <v>4462151</v>
       </c>
       <c r="M4" t="n">
         <v>4462151</v>
       </c>
       <c r="N4" t="n">
-        <v>4462151</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>16077556</v>
       </c>
       <c r="P4" t="n">
-        <v>16077556</v>
+        <v>6501192</v>
       </c>
       <c r="Q4" t="n">
-        <v>6501192</v>
+        <v>7816613</v>
       </c>
       <c r="R4" t="n">
-        <v>7816613</v>
+        <v>35208337</v>
       </c>
       <c r="S4" t="n">
-        <v>35208337</v>
+        <v>38577829</v>
       </c>
       <c r="T4" t="n">
-        <v>38577829</v>
-      </c>
-      <c r="U4" t="n">
         <v>38213894</v>
       </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="s"/>
       <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="X4" t="n">
+        <v>22</v>
+      </c>
       <c r="Y4" t="n">
         <v>22</v>
       </c>
       <c r="Z4" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>3473974</v>
       </c>
       <c r="AB4" t="n">
-        <v>3473974</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
         <v>256020664</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:29">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10373659</v>
       </c>
       <c r="F5" t="n">
-        <v>10373659</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>5086476</v>
       </c>
       <c r="H5" t="n">
-        <v>5086476</v>
+        <v>242520591</v>
       </c>
       <c r="I5" t="n">
-        <v>242520591</v>
+        <v>270769472</v>
       </c>
       <c r="J5" t="n">
-        <v>270769472</v>
+        <v>16149564</v>
       </c>
       <c r="K5" t="n">
-        <v>16149564</v>
+        <v>10431201</v>
       </c>
       <c r="L5" t="n">
-        <v>10431201</v>
+        <v>186622129</v>
       </c>
       <c r="M5" t="n">
         <v>186622129</v>
       </c>
       <c r="N5" t="n">
-        <v>186622129</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>244013538</v>
       </c>
       <c r="P5" t="n">
-        <v>244013538</v>
+        <v>173772682</v>
       </c>
       <c r="Q5" t="n">
-        <v>173772682</v>
+        <v>1989990989</v>
       </c>
       <c r="R5" t="n">
-        <v>1989990989</v>
+        <v>3515329510</v>
       </c>
       <c r="S5" t="n">
-        <v>3515329510</v>
+        <v>4587854772</v>
       </c>
       <c r="T5" t="n">
-        <v>4587854772</v>
+        <v>4149831845</v>
       </c>
       <c r="U5" t="n">
-        <v>4149831845</v>
+        <v>18</v>
       </c>
       <c r="V5" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="W5" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>4175</v>
       </c>
       <c r="Y5" t="n">
-        <v>4175</v>
+        <v>40</v>
       </c>
       <c r="Z5" t="n">
-        <v>40</v>
+        <v>10732104583</v>
       </c>
       <c r="AA5" t="n">
-        <v>10732104583</v>
+        <v>2929644777</v>
       </c>
       <c r="AB5" t="n">
-        <v>2929644777</v>
+        <v>305928854058</v>
       </c>
       <c r="AC5" t="n">
-        <v>305928854058</v>
-      </c>
-      <c r="AD5" t="n">
         <v>8551281405</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:29">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5717255</v>
       </c>
       <c r="F6" t="n">
-        <v>5717255</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>15038362</v>
       </c>
       <c r="H6" t="n">
-        <v>15038362</v>
+        <v>97750000</v>
       </c>
       <c r="I6" t="n">
-        <v>97750000</v>
+        <v>117975262</v>
       </c>
       <c r="J6" t="n">
-        <v>117975262</v>
+        <v>47746799</v>
       </c>
       <c r="K6" t="n">
-        <v>47746799</v>
+        <v>22605797</v>
       </c>
       <c r="L6" t="n">
-        <v>22605797</v>
+        <v>85000000</v>
       </c>
       <c r="M6" t="n">
         <v>85000000</v>
       </c>
       <c r="N6" t="n">
-        <v>85000000</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>98775039</v>
       </c>
       <c r="P6" t="n">
-        <v>98775039</v>
+        <v>62782567</v>
       </c>
       <c r="Q6" t="n">
-        <v>62782567</v>
+        <v>880253289</v>
       </c>
       <c r="R6" t="n">
-        <v>880253289</v>
+        <v>1515112638</v>
       </c>
       <c r="S6" t="n">
-        <v>1515112638</v>
+        <v>2123398986</v>
       </c>
       <c r="T6" t="n">
-        <v>2123398986</v>
+        <v>2062139499</v>
       </c>
       <c r="U6" t="n">
-        <v>2062139499</v>
+        <v>13</v>
       </c>
       <c r="V6" t="n">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="W6" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="Y6" t="n">
-        <v>230</v>
+        <v>178</v>
       </c>
       <c r="Z6" t="n">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>146378709</v>
       </c>
       <c r="AB6" t="n">
-        <v>146378709</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
         <v>8326819938</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:29">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
         <v>32</v>
       </c>
+      <c r="E7" t="n">
+        <v>518809</v>
+      </c>
       <c r="F7" t="n">
-        <v>518809</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>653526</v>
       </c>
       <c r="H7" t="n">
-        <v>653526</v>
+        <v>5526939</v>
       </c>
       <c r="I7" t="n">
-        <v>5526939</v>
+        <v>7937114</v>
       </c>
       <c r="J7" t="n">
-        <v>7937114</v>
+        <v>2074947</v>
       </c>
       <c r="K7" t="n">
-        <v>2074947</v>
+        <v>1071603</v>
       </c>
       <c r="L7" t="n">
-        <v>1071603</v>
+        <v>4806034</v>
       </c>
       <c r="M7" t="n">
         <v>4806034</v>
       </c>
       <c r="N7" t="n">
-        <v>4806034</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>15810809</v>
       </c>
       <c r="P7" t="n">
-        <v>15810809</v>
+        <v>5123717</v>
       </c>
       <c r="Q7" t="n">
-        <v>5123717</v>
+        <v>8479730</v>
       </c>
       <c r="R7" t="n">
-        <v>8479730</v>
+        <v>42031418</v>
       </c>
       <c r="S7" t="n">
-        <v>42031418</v>
+        <v>50825454</v>
       </c>
       <c r="T7" t="n">
-        <v>50825454</v>
-      </c>
-      <c r="U7" t="n">
         <v>50208416</v>
       </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="s"/>
       <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="X7" t="n">
+        <v>22</v>
+      </c>
       <c r="Y7" t="n">
         <v>22</v>
       </c>
       <c r="Z7" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>3604754</v>
       </c>
       <c r="AB7" t="n">
-        <v>3604754</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
         <v>259097416</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:29">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8751203</v>
       </c>
       <c r="F8" t="n">
-        <v>8751203</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>13646269</v>
       </c>
       <c r="H8" t="n">
-        <v>13646269</v>
+        <v>263659169</v>
       </c>
       <c r="I8" t="n">
-        <v>263659169</v>
+        <v>242146353</v>
       </c>
       <c r="J8" t="n">
-        <v>242146353</v>
+        <v>42303434</v>
       </c>
       <c r="K8" t="n">
-        <v>42303434</v>
+        <v>21351299</v>
       </c>
       <c r="L8" t="n">
-        <v>21351299</v>
+        <v>198068901</v>
       </c>
       <c r="M8" t="n">
         <v>198068901</v>
       </c>
       <c r="N8" t="n">
-        <v>198068901</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>224724844</v>
       </c>
       <c r="P8" t="n">
-        <v>224724844</v>
+        <v>152195741</v>
       </c>
       <c r="Q8" t="n">
-        <v>152195741</v>
+        <v>1902758475</v>
       </c>
       <c r="R8" t="n">
-        <v>1902758475</v>
+        <v>3296815391</v>
       </c>
       <c r="S8" t="n">
-        <v>3296815391</v>
+        <v>4216324735</v>
       </c>
       <c r="T8" t="n">
-        <v>4216324735</v>
+        <v>3941242177</v>
       </c>
       <c r="U8" t="n">
-        <v>3941242177</v>
+        <v>18</v>
       </c>
       <c r="V8" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="W8" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>3486</v>
       </c>
       <c r="Y8" t="n">
-        <v>3486</v>
+        <v>39</v>
       </c>
       <c r="Z8" t="n">
-        <v>39</v>
+        <v>11100791200</v>
       </c>
       <c r="AA8" t="n">
-        <v>11100791200</v>
+        <v>3251428890</v>
       </c>
       <c r="AB8" t="n">
-        <v>3251428890</v>
+        <v>362057253200</v>
       </c>
       <c r="AC8" t="n">
-        <v>362057253200</v>
-      </c>
-      <c r="AD8" t="n">
         <v>8131698046</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:29">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4731398</v>
       </c>
       <c r="F9" t="n">
-        <v>4731398</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>6450641</v>
       </c>
       <c r="H9" t="n">
-        <v>6450641</v>
+        <v>152950000</v>
       </c>
       <c r="I9" t="n">
-        <v>152950000</v>
+        <v>129235901</v>
       </c>
       <c r="J9" t="n">
-        <v>129235901</v>
+        <v>19996989</v>
       </c>
       <c r="K9" t="n">
-        <v>19996989</v>
+        <v>10289079</v>
       </c>
       <c r="L9" t="n">
-        <v>10289079</v>
+        <v>133000000</v>
       </c>
       <c r="M9" t="n">
         <v>133000000</v>
       </c>
       <c r="N9" t="n">
-        <v>133000000</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>115938930</v>
       </c>
       <c r="P9" t="n">
-        <v>115938930</v>
+        <v>75501533</v>
       </c>
       <c r="Q9" t="n">
-        <v>75501533</v>
+        <v>765677111</v>
       </c>
       <c r="R9" t="n">
-        <v>765677111</v>
+        <v>1527882508</v>
       </c>
       <c r="S9" t="n">
-        <v>1527882508</v>
+        <v>1563723666</v>
       </c>
       <c r="T9" t="n">
-        <v>1563723666</v>
+        <v>1535161613</v>
       </c>
       <c r="U9" t="n">
-        <v>1535161613</v>
+        <v>14</v>
       </c>
       <c r="V9" t="n">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="W9" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="Y9" t="n">
-        <v>230</v>
+        <v>172</v>
       </c>
       <c r="Z9" t="n">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>169989130</v>
       </c>
       <c r="AB9" t="n">
-        <v>169989130</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
         <v>9678893228</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:29">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
         <v>32</v>
       </c>
+      <c r="E10" t="n">
+        <v>473375</v>
+      </c>
       <c r="F10" t="n">
-        <v>473375</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>145759</v>
       </c>
       <c r="H10" t="n">
-        <v>145759</v>
+        <v>6060762</v>
       </c>
       <c r="I10" t="n">
-        <v>6060762</v>
+        <v>7988006</v>
       </c>
       <c r="J10" t="n">
-        <v>7988006</v>
+        <v>451855</v>
       </c>
       <c r="K10" t="n">
-        <v>451855</v>
+        <v>353426</v>
       </c>
       <c r="L10" t="n">
-        <v>353426</v>
+        <v>5270228</v>
       </c>
       <c r="M10" t="n">
         <v>5270228</v>
       </c>
       <c r="N10" t="n">
-        <v>5270228</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>10168273</v>
       </c>
       <c r="P10" t="n">
-        <v>10168273</v>
+        <v>6249256</v>
       </c>
       <c r="Q10" t="n">
-        <v>6249256</v>
+        <v>9358680</v>
       </c>
       <c r="R10" t="n">
-        <v>9358680</v>
+        <v>38259364</v>
       </c>
       <c r="S10" t="n">
-        <v>38259364</v>
+        <v>45161563</v>
       </c>
       <c r="T10" t="n">
-        <v>45161563</v>
-      </c>
-      <c r="U10" t="n">
         <v>43458560</v>
       </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="s"/>
       <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="X10" t="n">
+        <v>21</v>
+      </c>
       <c r="Y10" t="n">
         <v>21</v>
       </c>
       <c r="Z10" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1061796</v>
       </c>
       <c r="AB10" t="n">
-        <v>1061796</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
         <v>200574356</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:29">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10490757</v>
       </c>
       <c r="F11" t="n">
-        <v>10490757</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>14617395</v>
       </c>
       <c r="H11" t="n">
-        <v>14617395</v>
+        <v>244733639</v>
       </c>
       <c r="I11" t="n">
-        <v>244733639</v>
+        <v>216655634</v>
       </c>
       <c r="J11" t="n">
-        <v>216655634</v>
+        <v>36251140</v>
       </c>
       <c r="K11" t="n">
-        <v>36251140</v>
+        <v>20248566</v>
       </c>
       <c r="L11" t="n">
-        <v>20248566</v>
+        <v>188728729</v>
       </c>
       <c r="M11" t="n">
         <v>188728729</v>
       </c>
       <c r="N11" t="n">
-        <v>188728729</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>246767976</v>
       </c>
       <c r="P11" t="n">
-        <v>246767976</v>
+        <v>175734238</v>
       </c>
       <c r="Q11" t="n">
-        <v>175734238</v>
+        <v>2041197144</v>
       </c>
       <c r="R11" t="n">
-        <v>2041197144</v>
+        <v>3656661645</v>
       </c>
       <c r="S11" t="n">
-        <v>3656661645</v>
+        <v>4376429550</v>
       </c>
       <c r="T11" t="n">
-        <v>4376429550</v>
+        <v>4089438402</v>
       </c>
       <c r="U11" t="n">
-        <v>4089438402</v>
+        <v>18</v>
       </c>
       <c r="V11" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="W11" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="Y11" t="n">
-        <v>4200</v>
+        <v>39</v>
       </c>
       <c r="Z11" t="n">
-        <v>39</v>
+        <v>10815843255</v>
       </c>
       <c r="AA11" t="n">
-        <v>10815843255</v>
+        <v>2948917601</v>
       </c>
       <c r="AB11" t="n">
-        <v>2948917601</v>
+        <v>319642036312</v>
       </c>
       <c r="AC11" t="n">
-        <v>319642036312</v>
-      </c>
-      <c r="AD11" t="n">
         <v>9773825107</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:29">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5759600</v>
       </c>
       <c r="F12" t="n">
-        <v>5759600</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>6867718</v>
       </c>
       <c r="H12" t="n">
-        <v>6867718</v>
+        <v>97750000</v>
       </c>
       <c r="I12" t="n">
-        <v>97750000</v>
+        <v>154930793</v>
       </c>
       <c r="J12" t="n">
-        <v>154930793</v>
+        <v>17031942</v>
       </c>
       <c r="K12" t="n">
-        <v>17031942</v>
+        <v>9787556</v>
       </c>
       <c r="L12" t="n">
-        <v>9787556</v>
+        <v>85000000</v>
       </c>
       <c r="M12" t="n">
         <v>85000000</v>
       </c>
       <c r="N12" t="n">
-        <v>85000000</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>98775039</v>
       </c>
       <c r="P12" t="n">
-        <v>98775039</v>
+        <v>62782566</v>
       </c>
       <c r="Q12" t="n">
-        <v>62782566</v>
+        <v>794426026</v>
       </c>
       <c r="R12" t="n">
-        <v>794426026</v>
+        <v>1559028565</v>
       </c>
       <c r="S12" t="n">
-        <v>1559028565</v>
+        <v>1841770702</v>
       </c>
       <c r="T12" t="n">
-        <v>1841770702</v>
+        <v>1807165200</v>
       </c>
       <c r="U12" t="n">
-        <v>1807165200</v>
+        <v>13</v>
       </c>
       <c r="V12" t="n">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="W12" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="Y12" t="n">
-        <v>236</v>
+        <v>184</v>
       </c>
       <c r="Z12" t="n">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>184499826</v>
       </c>
       <c r="AB12" t="n">
-        <v>184499826</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
         <v>8442366043</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:29">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" t="s">
         <v>32</v>
       </c>
+      <c r="E13" t="n">
+        <v>524626</v>
+      </c>
       <c r="F13" t="n">
-        <v>524626</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>4730274</v>
       </c>
       <c r="H13" t="n">
-        <v>4730274</v>
+        <v>5769881</v>
       </c>
       <c r="I13" t="n">
-        <v>5769881</v>
+        <v>8243838</v>
       </c>
       <c r="J13" t="n">
-        <v>8243838</v>
+        <v>11731080</v>
       </c>
       <c r="K13" t="n">
-        <v>11731080</v>
+        <v>5605373</v>
       </c>
       <c r="L13" t="n">
-        <v>5605373</v>
+        <v>5017287</v>
       </c>
       <c r="M13" t="n">
         <v>5017287</v>
       </c>
       <c r="N13" t="n">
-        <v>5017287</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>16505786</v>
       </c>
       <c r="P13" t="n">
-        <v>16505786</v>
+        <v>5348934</v>
       </c>
       <c r="Q13" t="n">
-        <v>5348934</v>
+        <v>9676225</v>
       </c>
       <c r="R13" t="n">
-        <v>9676225</v>
+        <v>41300676</v>
       </c>
       <c r="S13" t="n">
-        <v>41300676</v>
+        <v>48860499</v>
       </c>
       <c r="T13" t="n">
-        <v>48860499</v>
-      </c>
-      <c r="U13" t="n">
         <v>47746529</v>
       </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="s"/>
       <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="X13" t="n">
+        <v>18</v>
+      </c>
       <c r="Y13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z13" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>2263879</v>
       </c>
       <c r="AB13" t="n">
-        <v>2263879</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
         <v>254603628</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:29">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8609968</v>
       </c>
       <c r="F14" t="n">
-        <v>8609968</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>12236360</v>
       </c>
       <c r="H14" t="n">
-        <v>12236360</v>
+        <v>259403998</v>
       </c>
       <c r="I14" t="n">
-        <v>259403998</v>
+        <v>298141275</v>
       </c>
       <c r="J14" t="n">
-        <v>298141275</v>
+        <v>37932717</v>
       </c>
       <c r="K14" t="n">
-        <v>37932717</v>
+        <v>18765687</v>
       </c>
       <c r="L14" t="n">
-        <v>18765687</v>
+        <v>194872285</v>
       </c>
       <c r="M14" t="n">
         <v>194872285</v>
       </c>
       <c r="N14" t="n">
-        <v>194872285</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>254996100</v>
       </c>
       <c r="P14" t="n">
-        <v>254996100</v>
+        <v>179341896</v>
       </c>
       <c r="Q14" t="n">
-        <v>179341896</v>
+        <v>1823864696</v>
       </c>
       <c r="R14" t="n">
-        <v>1823864696</v>
+        <v>3135151880</v>
       </c>
       <c r="S14" t="n">
-        <v>3135151880</v>
+        <v>3971090772</v>
       </c>
       <c r="T14" t="n">
-        <v>3971090772</v>
+        <v>3758177901</v>
       </c>
       <c r="U14" t="n">
-        <v>3758177901</v>
+        <v>18</v>
       </c>
       <c r="V14" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="W14" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>3521</v>
       </c>
       <c r="Y14" t="n">
-        <v>3521</v>
+        <v>39</v>
       </c>
       <c r="Z14" t="n">
-        <v>39</v>
+        <v>9645621867</v>
       </c>
       <c r="AA14" t="n">
-        <v>9645621867</v>
+        <v>2905152897</v>
       </c>
       <c r="AB14" t="n">
-        <v>2905152897</v>
+        <v>347573314401</v>
       </c>
       <c r="AC14" t="n">
-        <v>347573314401</v>
-      </c>
-      <c r="AD14" t="n">
         <v>8340914868</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:29">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4731399</v>
       </c>
       <c r="F15" t="n">
-        <v>4731399</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>6725656</v>
       </c>
       <c r="H15" t="n">
-        <v>6725656</v>
+        <v>152950000</v>
       </c>
       <c r="I15" t="n">
-        <v>152950000</v>
+        <v>165063466</v>
       </c>
       <c r="J15" t="n">
-        <v>165063466</v>
+        <v>20849534</v>
       </c>
       <c r="K15" t="n">
-        <v>20849534</v>
+        <v>11285718</v>
       </c>
       <c r="L15" t="n">
-        <v>11285718</v>
+        <v>133000000</v>
       </c>
       <c r="M15" t="n">
         <v>133000000</v>
       </c>
       <c r="N15" t="n">
-        <v>133000000</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>190395482</v>
       </c>
       <c r="P15" t="n">
-        <v>190395482</v>
+        <v>97585754</v>
       </c>
       <c r="Q15" t="n">
-        <v>97585754</v>
+        <v>1152564871</v>
       </c>
       <c r="R15" t="n">
-        <v>1152564871</v>
+        <v>1736778282</v>
       </c>
       <c r="S15" t="n">
-        <v>1736778282</v>
+        <v>2666763946</v>
       </c>
       <c r="T15" t="n">
-        <v>2666763946</v>
+        <v>2622712657</v>
       </c>
       <c r="U15" t="n">
-        <v>2622712657</v>
+        <v>14</v>
       </c>
       <c r="V15" t="n">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="W15" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="Y15" t="n">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="Z15" t="n">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>212849152</v>
       </c>
       <c r="AB15" t="n">
-        <v>212849152</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
         <v>12858948715</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:29">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" t="s">
         <v>32</v>
       </c>
+      <c r="E16" t="n">
+        <v>481611</v>
+      </c>
       <c r="F16" t="n">
-        <v>481611</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>98114</v>
       </c>
       <c r="H16" t="n">
-        <v>98114</v>
+        <v>6166219</v>
       </c>
       <c r="I16" t="n">
-        <v>6166219</v>
+        <v>8936917</v>
       </c>
       <c r="J16" t="n">
-        <v>8936917</v>
+        <v>304156</v>
       </c>
       <c r="K16" t="n">
-        <v>304156</v>
+        <v>291681</v>
       </c>
       <c r="L16" t="n">
-        <v>291681</v>
+        <v>5361930</v>
       </c>
       <c r="M16" t="n">
         <v>5361930</v>
       </c>
       <c r="N16" t="n">
-        <v>5361930</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>10345201</v>
       </c>
       <c r="P16" t="n">
-        <v>10345201</v>
-      </c>
-      <c r="Q16" t="n">
         <v>5547051</v>
       </c>
+      <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="S16" t="n">
+        <v>30126181</v>
+      </c>
       <c r="T16" t="n">
         <v>30126181</v>
       </c>
-      <c r="U16" t="n">
-        <v>30126181</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="s"/>
       <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="X16" t="n">
+        <v>21</v>
+      </c>
       <c r="Y16" t="n">
         <v>21</v>
       </c>
       <c r="Z16" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>2448742</v>
       </c>
       <c r="AB16" t="n">
-        <v>2448742</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
         <v>183040214</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:29">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="E17" t="n">
+        <v>11426084</v>
       </c>
       <c r="F17" t="n">
-        <v>11426084</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>396388</v>
       </c>
       <c r="H17" t="n">
-        <v>396388</v>
+        <v>232564339</v>
       </c>
       <c r="I17" t="n">
-        <v>232564339</v>
+        <v>252589977</v>
       </c>
       <c r="J17" t="n">
-        <v>252589977</v>
+        <v>1327902</v>
       </c>
       <c r="K17" t="n">
-        <v>1327902</v>
+        <v>4339623</v>
       </c>
       <c r="L17" t="n">
-        <v>4339623</v>
+        <v>180749768</v>
       </c>
       <c r="M17" t="n">
         <v>180749768</v>
       </c>
       <c r="N17" t="n">
-        <v>180749768</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>209047298</v>
       </c>
       <c r="P17" t="n">
-        <v>209047298</v>
+        <v>131486054</v>
       </c>
       <c r="Q17" t="n">
-        <v>131486054</v>
+        <v>1346574094</v>
       </c>
       <c r="R17" t="n">
-        <v>1346574094</v>
+        <v>2454913851</v>
       </c>
       <c r="S17" t="n">
-        <v>2454913851</v>
+        <v>3237319348</v>
       </c>
       <c r="T17" t="n">
-        <v>3237319348</v>
-      </c>
-      <c r="U17" t="n">
         <v>3064795588</v>
       </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="s"/>
       <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="X17" t="n">
+        <v>3994</v>
+      </c>
       <c r="Y17" t="n">
-        <v>3994</v>
+        <v>33</v>
       </c>
       <c r="Z17" t="n">
-        <v>33</v>
+        <v>11128035152</v>
       </c>
       <c r="AA17" t="n">
-        <v>11128035152</v>
+        <v>3358812820</v>
       </c>
       <c r="AB17" t="n">
-        <v>3358812820</v>
+        <v>255195805797</v>
       </c>
       <c r="AC17" t="n">
-        <v>255195805797</v>
-      </c>
-      <c r="AD17" t="n">
         <v>6546618044</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:29">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7641921</v>
       </c>
       <c r="F18" t="n">
-        <v>7641921</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>19486595</v>
       </c>
       <c r="H18" t="n">
-        <v>19486595</v>
+        <v>124200000</v>
       </c>
       <c r="I18" t="n">
-        <v>124200000</v>
+        <v>149950025</v>
       </c>
       <c r="J18" t="n">
-        <v>149950025</v>
+        <v>65280095</v>
       </c>
       <c r="K18" t="n">
-        <v>65280095</v>
+        <v>30494841</v>
       </c>
       <c r="L18" t="n">
-        <v>30494841</v>
+        <v>108000000</v>
       </c>
       <c r="M18" t="n">
         <v>108000000</v>
       </c>
       <c r="N18" t="n">
-        <v>108000000</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>159155474</v>
       </c>
       <c r="P18" t="n">
-        <v>159155474</v>
+        <v>120958217</v>
       </c>
       <c r="Q18" t="n">
-        <v>120958217</v>
+        <v>27987156</v>
       </c>
       <c r="R18" t="n">
-        <v>27987156</v>
+        <v>1142293307</v>
       </c>
       <c r="S18" t="n">
-        <v>1142293307</v>
+        <v>2967603356</v>
       </c>
       <c r="T18" t="n">
-        <v>2967603356</v>
-      </c>
-      <c r="U18" t="n">
         <v>2859952416</v>
       </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="s"/>
       <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="X18" t="n">
+        <v>37</v>
+      </c>
       <c r="Y18" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="Z18" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>169638969</v>
       </c>
       <c r="AB18" t="n">
-        <v>169638969</v>
+        <v>0</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
         <v>6869676564</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:29">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" t="s">
         <v>32</v>
       </c>
+      <c r="E19" t="n">
+        <v>542365</v>
+      </c>
       <c r="F19" t="n">
-        <v>542365</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1937347</v>
       </c>
       <c r="H19" t="n">
-        <v>1937347</v>
+        <v>4071644</v>
       </c>
       <c r="I19" t="n">
-        <v>4071644</v>
+        <v>6071121</v>
       </c>
       <c r="J19" t="n">
-        <v>6071121</v>
+        <v>6490112</v>
       </c>
       <c r="K19" t="n">
-        <v>6490112</v>
+        <v>2960042</v>
       </c>
       <c r="L19" t="n">
-        <v>2960042</v>
+        <v>3540560</v>
       </c>
       <c r="M19" t="n">
         <v>3540560</v>
       </c>
       <c r="N19" t="n">
-        <v>3540560</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>5111760</v>
       </c>
       <c r="P19" t="n">
-        <v>5111760</v>
+        <v>3452346</v>
       </c>
       <c r="Q19" t="n">
-        <v>3452346</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>22477195</v>
       </c>
       <c r="S19" t="n">
-        <v>22477195</v>
+        <v>28979414</v>
       </c>
       <c r="T19" t="n">
         <v>28979414</v>
       </c>
-      <c r="U19" t="n">
-        <v>28979414</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="s"/>
       <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
       <c r="Y19" t="n">
         <v>0</v>
       </c>
@@ -2187,1363 +2127,1315 @@
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>1593345</v>
       </c>
       <c r="AB19" t="n">
-        <v>1593345</v>
+        <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
         <v>164552650</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:29">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="E20" t="n">
+        <v>9650744</v>
       </c>
       <c r="F20" t="n">
-        <v>9650744</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>14318168</v>
       </c>
       <c r="H20" t="n">
-        <v>14318168</v>
+        <v>286764257</v>
       </c>
       <c r="I20" t="n">
-        <v>286764257</v>
+        <v>265158125</v>
       </c>
       <c r="J20" t="n">
-        <v>265158125</v>
+        <v>42238596</v>
       </c>
       <c r="K20" t="n">
-        <v>42238596</v>
+        <v>21848477</v>
       </c>
       <c r="L20" t="n">
-        <v>21848477</v>
+        <v>219325870</v>
       </c>
       <c r="M20" t="n">
         <v>219325870</v>
       </c>
       <c r="N20" t="n">
-        <v>219325870</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>234781052</v>
       </c>
       <c r="P20" t="n">
-        <v>234781052</v>
+        <v>169897889</v>
       </c>
       <c r="Q20" t="n">
-        <v>169897889</v>
+        <v>2275054040</v>
       </c>
       <c r="R20" t="n">
-        <v>2275054040</v>
+        <v>3538716727</v>
       </c>
       <c r="S20" t="n">
-        <v>3538716727</v>
+        <v>4260550492</v>
       </c>
       <c r="T20" t="n">
-        <v>4260550492</v>
+        <v>3979408314</v>
       </c>
       <c r="U20" t="n">
-        <v>3979408314</v>
+        <v>18</v>
       </c>
       <c r="V20" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="W20" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>3486</v>
       </c>
       <c r="Y20" t="n">
-        <v>3486</v>
+        <v>39</v>
       </c>
       <c r="Z20" t="n">
-        <v>39</v>
+        <v>11795411522</v>
       </c>
       <c r="AA20" t="n">
-        <v>11795411522</v>
+        <v>3201599475</v>
       </c>
       <c r="AB20" t="n">
-        <v>3201599475</v>
+        <v>372322315000</v>
       </c>
       <c r="AC20" t="n">
-        <v>372322315000</v>
-      </c>
-      <c r="AD20" t="n">
         <v>9372542014</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:29">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4598264</v>
       </c>
       <c r="F21" t="n">
-        <v>4598264</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>6965701</v>
       </c>
       <c r="H21" t="n">
-        <v>6965701</v>
+        <v>85100000</v>
       </c>
       <c r="I21" t="n">
-        <v>85100000</v>
+        <v>117975262</v>
       </c>
       <c r="J21" t="n">
-        <v>117975262</v>
+        <v>20548820</v>
       </c>
       <c r="K21" t="n">
-        <v>20548820</v>
+        <v>10597219</v>
       </c>
       <c r="L21" t="n">
-        <v>10597219</v>
+        <v>74000000</v>
       </c>
       <c r="M21" t="n">
         <v>74000000</v>
       </c>
       <c r="N21" t="n">
-        <v>74000000</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>98775038</v>
       </c>
       <c r="P21" t="n">
-        <v>98775038</v>
+        <v>71956239</v>
       </c>
       <c r="Q21" t="n">
-        <v>71956239</v>
+        <v>790375040</v>
       </c>
       <c r="R21" t="n">
-        <v>790375040</v>
+        <v>1462529900</v>
       </c>
       <c r="S21" t="n">
-        <v>1462529900</v>
+        <v>1831149996</v>
       </c>
       <c r="T21" t="n">
-        <v>1831149996</v>
+        <v>1758276789</v>
       </c>
       <c r="U21" t="n">
-        <v>1758276789</v>
+        <v>13</v>
       </c>
       <c r="V21" t="n">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="W21" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="Y21" t="n">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="Z21" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>166366051</v>
       </c>
       <c r="AB21" t="n">
-        <v>166366051</v>
+        <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
         <v>8250449517</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:29">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" t="s">
         <v>32</v>
       </c>
+      <c r="E22" t="n">
+        <v>497371</v>
+      </c>
       <c r="F22" t="n">
-        <v>497371</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>153148</v>
       </c>
       <c r="H22" t="n">
-        <v>153148</v>
+        <v>6895114</v>
       </c>
       <c r="I22" t="n">
-        <v>6895114</v>
+        <v>7720141</v>
       </c>
       <c r="J22" t="n">
-        <v>7720141</v>
+        <v>451788</v>
       </c>
       <c r="K22" t="n">
-        <v>451788</v>
+        <v>363761</v>
       </c>
       <c r="L22" t="n">
-        <v>363761</v>
+        <v>5995752</v>
       </c>
       <c r="M22" t="n">
         <v>5995752</v>
       </c>
       <c r="N22" t="n">
-        <v>5995752</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>9999530</v>
       </c>
       <c r="P22" t="n">
-        <v>9999530</v>
+        <v>6680297</v>
       </c>
       <c r="Q22" t="n">
-        <v>6680297</v>
+        <v>4536141</v>
       </c>
       <c r="R22" t="n">
-        <v>4536141</v>
+        <v>25816988</v>
       </c>
       <c r="S22" t="n">
-        <v>25816988</v>
+        <v>26431857</v>
       </c>
       <c r="T22" t="n">
-        <v>26431857</v>
-      </c>
-      <c r="U22" t="n">
         <v>25790394</v>
       </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="s"/>
       <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="X22" t="n">
+        <v>21</v>
+      </c>
       <c r="Y22" t="n">
         <v>21</v>
       </c>
       <c r="Z22" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>3223940</v>
       </c>
       <c r="AB22" t="n">
-        <v>3223940</v>
+        <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD22" t="n">
         <v>219139355</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:29">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10610980</v>
       </c>
       <c r="F23" t="n">
-        <v>10610980</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>14532717</v>
       </c>
       <c r="H23" t="n">
-        <v>14532717</v>
+        <v>187867405</v>
       </c>
       <c r="I23" t="n">
-        <v>187867405</v>
+        <v>229645753</v>
       </c>
       <c r="J23" t="n">
-        <v>229645753</v>
+        <v>51591146</v>
       </c>
       <c r="K23" t="n">
-        <v>51591146</v>
+        <v>25322498</v>
       </c>
       <c r="L23" t="n">
-        <v>25322498</v>
+        <v>141126037</v>
       </c>
       <c r="M23" t="n">
         <v>141126037</v>
       </c>
       <c r="N23" t="n">
-        <v>141126037</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>168190417</v>
       </c>
       <c r="P23" t="n">
-        <v>168190417</v>
+        <v>110006711</v>
       </c>
       <c r="Q23" t="n">
-        <v>110006711</v>
+        <v>1710795825</v>
       </c>
       <c r="R23" t="n">
-        <v>1710795825</v>
+        <v>3134328965</v>
       </c>
       <c r="S23" t="n">
-        <v>3134328965</v>
+        <v>3963766024</v>
       </c>
       <c r="T23" t="n">
-        <v>3963766024</v>
+        <v>3697586146</v>
       </c>
       <c r="U23" t="n">
-        <v>3697586146</v>
+        <v>18</v>
       </c>
       <c r="V23" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="W23" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>4408</v>
       </c>
       <c r="Y23" t="n">
-        <v>4408</v>
+        <v>34</v>
       </c>
       <c r="Z23" t="n">
-        <v>34</v>
+        <v>9030204845</v>
       </c>
       <c r="AA23" t="n">
-        <v>9030204845</v>
+        <v>2824728575</v>
       </c>
       <c r="AB23" t="n">
-        <v>2824728575</v>
+        <v>199461505722</v>
       </c>
       <c r="AC23" t="n">
-        <v>199461505722</v>
-      </c>
-      <c r="AD23" t="n">
         <v>7251929617</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:29">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="E24" t="n">
+        <v>7965326</v>
       </c>
       <c r="F24" t="n">
-        <v>7965326</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>4614555</v>
       </c>
       <c r="H24" t="n">
-        <v>4614555</v>
+        <v>124200000</v>
       </c>
       <c r="I24" t="n">
-        <v>124200000</v>
+        <v>142350027</v>
       </c>
       <c r="J24" t="n">
-        <v>142350027</v>
+        <v>16381670</v>
       </c>
       <c r="K24" t="n">
-        <v>16381670</v>
+        <v>9557312</v>
       </c>
       <c r="L24" t="n">
-        <v>9557312</v>
+        <v>108000000</v>
       </c>
       <c r="M24" t="n">
         <v>108000000</v>
       </c>
       <c r="N24" t="n">
-        <v>108000000</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>153466682</v>
       </c>
       <c r="P24" t="n">
-        <v>153466682</v>
+        <v>87499374</v>
       </c>
       <c r="Q24" t="n">
-        <v>87499374</v>
+        <v>104456516</v>
       </c>
       <c r="R24" t="n">
-        <v>104456516</v>
+        <v>1196750811</v>
       </c>
       <c r="S24" t="n">
-        <v>1196750811</v>
+        <v>1846218151</v>
       </c>
       <c r="T24" t="n">
-        <v>1846218151</v>
+        <v>1816141030</v>
       </c>
       <c r="U24" t="n">
-        <v>1816141030</v>
+        <v>13</v>
       </c>
       <c r="V24" t="n">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="W24" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="Y24" t="n">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="Z24" t="n">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>177792354</v>
       </c>
       <c r="AB24" t="n">
-        <v>177792354</v>
+        <v>0</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="n">
         <v>7603620731</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:29">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" t="s">
         <v>32</v>
       </c>
+      <c r="E25" t="n">
+        <v>534312</v>
+      </c>
       <c r="F25" t="n">
-        <v>534312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2093543</v>
       </c>
       <c r="H25" t="n">
-        <v>2093543</v>
+        <v>4327584</v>
       </c>
       <c r="I25" t="n">
-        <v>4327584</v>
+        <v>6118481</v>
       </c>
       <c r="J25" t="n">
-        <v>6118481</v>
+        <v>7432079</v>
       </c>
       <c r="K25" t="n">
-        <v>7432079</v>
+        <v>3319778</v>
       </c>
       <c r="L25" t="n">
-        <v>3319778</v>
+        <v>3763117</v>
       </c>
       <c r="M25" t="n">
         <v>3763117</v>
       </c>
       <c r="N25" t="n">
-        <v>3763117</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>5461379</v>
       </c>
       <c r="P25" t="n">
-        <v>5461379</v>
+        <v>4222915</v>
       </c>
       <c r="Q25" t="n">
-        <v>4222915</v>
+        <v>873679</v>
       </c>
       <c r="R25" t="n">
-        <v>873679</v>
+        <v>37883794</v>
       </c>
       <c r="S25" t="n">
-        <v>37883794</v>
+        <v>38669741</v>
       </c>
       <c r="T25" t="n">
         <v>38669741</v>
       </c>
-      <c r="U25" t="n">
-        <v>38669741</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="s"/>
       <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="X25" t="n">
+        <v>2</v>
+      </c>
       <c r="Y25" t="n">
         <v>2</v>
       </c>
       <c r="Z25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>7420740</v>
       </c>
       <c r="AB25" t="n">
-        <v>7420740</v>
+        <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
         <v>315668953</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:29">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="E26" t="n">
+        <v>11381743</v>
       </c>
       <c r="F26" t="n">
-        <v>11381743</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>15448252</v>
       </c>
       <c r="H26" t="n">
-        <v>15448252</v>
+        <v>231119855</v>
       </c>
       <c r="I26" t="n">
-        <v>231119855</v>
+        <v>266227681</v>
       </c>
       <c r="J26" t="n">
-        <v>266227681</v>
+        <v>53296470</v>
       </c>
       <c r="K26" t="n">
-        <v>53296470</v>
+        <v>26441734</v>
       </c>
       <c r="L26" t="n">
-        <v>26441734</v>
+        <v>180048345</v>
       </c>
       <c r="M26" t="n">
         <v>180048345</v>
       </c>
       <c r="N26" t="n">
-        <v>180048345</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>208236062</v>
       </c>
       <c r="P26" t="n">
-        <v>208236062</v>
+        <v>116838062</v>
       </c>
       <c r="Q26" t="n">
-        <v>116838062</v>
+        <v>1873761667</v>
       </c>
       <c r="R26" t="n">
-        <v>1873761667</v>
+        <v>3444906771</v>
       </c>
       <c r="S26" t="n">
-        <v>3444906771</v>
+        <v>3933170538</v>
       </c>
       <c r="T26" t="n">
-        <v>3933170538</v>
+        <v>3643177592</v>
       </c>
       <c r="U26" t="n">
-        <v>3643177592</v>
+        <v>18</v>
       </c>
       <c r="V26" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="W26" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>6261</v>
       </c>
       <c r="Y26" t="n">
-        <v>6261</v>
-      </c>
-      <c r="Z26" t="n">
         <v>34</v>
       </c>
-      <c r="AA26" t="s"/>
+      <c r="Z26" t="s"/>
+      <c r="AA26" t="n">
+        <v>3653629955</v>
+      </c>
       <c r="AB26" t="n">
-        <v>3653629955</v>
+        <v>250483316807</v>
       </c>
       <c r="AC26" t="n">
-        <v>250483316807</v>
-      </c>
-      <c r="AD26" t="n">
         <v>7151480480</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:29">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="E27" t="n">
+        <v>7575757</v>
       </c>
       <c r="F27" t="n">
-        <v>7575757</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>5624778</v>
       </c>
       <c r="H27" t="n">
-        <v>5624778</v>
+        <v>124200000</v>
       </c>
       <c r="I27" t="n">
-        <v>124200000</v>
+        <v>142166320</v>
       </c>
       <c r="J27" t="n">
-        <v>142166320</v>
+        <v>19405486</v>
       </c>
       <c r="K27" t="n">
-        <v>19405486</v>
+        <v>10759987</v>
       </c>
       <c r="L27" t="n">
-        <v>10759987</v>
+        <v>108000000</v>
       </c>
       <c r="M27" t="n">
         <v>108000000</v>
       </c>
       <c r="N27" t="n">
-        <v>108000000</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>159155474</v>
       </c>
       <c r="P27" t="n">
-        <v>159155474</v>
+        <v>110732921</v>
       </c>
       <c r="Q27" t="n">
-        <v>110732921</v>
+        <v>165023161</v>
       </c>
       <c r="R27" t="n">
-        <v>165023161</v>
+        <v>1423162534</v>
       </c>
       <c r="S27" t="n">
-        <v>1423162534</v>
+        <v>1881557403</v>
       </c>
       <c r="T27" t="n">
-        <v>1881557403</v>
+        <v>1860111568</v>
       </c>
       <c r="U27" t="n">
-        <v>1860111568</v>
+        <v>13</v>
       </c>
       <c r="V27" t="n">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="W27" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="Y27" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="Z27" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>141791124</v>
       </c>
       <c r="AB27" t="n">
-        <v>141791124</v>
+        <v>0</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD27" t="n">
         <v>6319921081</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:29">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" t="s">
         <v>32</v>
       </c>
+      <c r="E28" t="n">
+        <v>541934</v>
+      </c>
       <c r="F28" t="n">
-        <v>541934</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>597459</v>
       </c>
       <c r="H28" t="n">
-        <v>597459</v>
+        <v>4275319</v>
       </c>
       <c r="I28" t="n">
-        <v>4275319</v>
+        <v>6258316</v>
       </c>
       <c r="J28" t="n">
-        <v>6258316</v>
+        <v>2061233</v>
       </c>
       <c r="K28" t="n">
-        <v>2061233</v>
+        <v>1056207</v>
       </c>
       <c r="L28" t="n">
-        <v>1056207</v>
+        <v>3717669</v>
       </c>
       <c r="M28" t="n">
         <v>3717669</v>
       </c>
       <c r="N28" t="n">
-        <v>3717669</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>5011503</v>
       </c>
       <c r="P28" t="n">
-        <v>5011503</v>
+        <v>3725925</v>
       </c>
       <c r="Q28" t="n">
-        <v>3725925</v>
+        <v>109466</v>
       </c>
       <c r="R28" t="n">
-        <v>109466</v>
+        <v>25798108</v>
       </c>
       <c r="S28" t="n">
-        <v>25798108</v>
+        <v>34759646</v>
       </c>
       <c r="T28" t="n">
         <v>34759646</v>
       </c>
-      <c r="U28" t="n">
-        <v>34759646</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="s"/>
       <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="X28" t="n">
+        <v>1</v>
+      </c>
       <c r="Y28" t="n">
         <v>1</v>
       </c>
       <c r="Z28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>2460113</v>
       </c>
       <c r="AB28" t="n">
-        <v>2460113</v>
+        <v>0</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD28" t="n">
         <v>187381008</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="E29" t="n">
+        <v>8315143</v>
       </c>
       <c r="F29" t="n">
-        <v>8315143</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1746146</v>
       </c>
       <c r="H29" t="n">
-        <v>1746146</v>
+        <v>165746803</v>
       </c>
       <c r="I29" t="n">
-        <v>165746803</v>
+        <v>214655944</v>
       </c>
       <c r="J29" t="n">
-        <v>214655944</v>
+        <v>2012225</v>
       </c>
       <c r="K29" t="n">
-        <v>2012225</v>
+        <v>3984260</v>
       </c>
       <c r="L29" t="n">
-        <v>3984260</v>
+        <v>121712919</v>
       </c>
       <c r="M29" t="n">
         <v>121712919</v>
       </c>
       <c r="N29" t="n">
-        <v>121712919</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>201542133</v>
       </c>
       <c r="P29" t="n">
-        <v>201542133</v>
+        <v>166244929</v>
       </c>
       <c r="Q29" t="n">
-        <v>166244929</v>
+        <v>1669782384</v>
       </c>
       <c r="R29" t="n">
-        <v>1669782384</v>
+        <v>3103641143</v>
       </c>
       <c r="S29" t="n">
-        <v>3103641143</v>
+        <v>3790121842</v>
       </c>
       <c r="T29" t="n">
-        <v>3790121842</v>
+        <v>3591198075</v>
       </c>
       <c r="U29" t="n">
-        <v>3591198075</v>
+        <v>18</v>
       </c>
       <c r="V29" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="W29" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>4512</v>
       </c>
       <c r="Y29" t="n">
-        <v>4512</v>
+        <v>33</v>
       </c>
       <c r="Z29" t="n">
-        <v>33</v>
+        <v>7118509146</v>
       </c>
       <c r="AA29" t="n">
-        <v>7118509146</v>
+        <v>2597037512</v>
       </c>
       <c r="AB29" t="n">
-        <v>2597037512</v>
+        <v>218146726718</v>
       </c>
       <c r="AC29" t="n">
-        <v>218146726718</v>
-      </c>
-      <c r="AD29" t="n">
         <v>7727549412</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:29">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="E30" t="n">
+        <v>7803071</v>
       </c>
       <c r="F30" t="n">
-        <v>7803071</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>49059126</v>
       </c>
       <c r="H30" t="n">
-        <v>49059126</v>
+        <v>124200000</v>
       </c>
       <c r="I30" t="n">
-        <v>124200000</v>
+        <v>153926156</v>
       </c>
       <c r="J30" t="n">
-        <v>153926156</v>
+        <v>56534803</v>
       </c>
       <c r="K30" t="n">
-        <v>56534803</v>
+        <v>37421010</v>
       </c>
       <c r="L30" t="n">
-        <v>37421010</v>
+        <v>108000000</v>
       </c>
       <c r="M30" t="n">
         <v>108000000</v>
       </c>
       <c r="N30" t="n">
-        <v>108000000</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>63743666</v>
       </c>
       <c r="P30" t="n">
-        <v>63743666</v>
+        <v>48019762</v>
       </c>
       <c r="Q30" t="n">
-        <v>48019762</v>
+        <v>476088757</v>
       </c>
       <c r="R30" t="n">
-        <v>476088757</v>
+        <v>1369920870</v>
       </c>
       <c r="S30" t="n">
-        <v>1369920870</v>
+        <v>2003910113</v>
       </c>
       <c r="T30" t="n">
-        <v>2003910113</v>
+        <v>1970193087</v>
       </c>
       <c r="U30" t="n">
-        <v>1970193087</v>
+        <v>12</v>
       </c>
       <c r="V30" t="n">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="W30" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="Y30" t="n">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="Z30" t="n">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>128007569</v>
       </c>
       <c r="AB30" t="n">
-        <v>128007569</v>
+        <v>0</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD30" t="n">
         <v>8474408547</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:29">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" t="s">
         <v>32</v>
       </c>
+      <c r="E31" t="n">
+        <v>522780</v>
+      </c>
       <c r="F31" t="n">
-        <v>522780</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>3833405</v>
       </c>
       <c r="H31" t="n">
-        <v>3833405</v>
+        <v>5886607</v>
       </c>
       <c r="I31" t="n">
-        <v>5886607</v>
+        <v>8214837</v>
       </c>
       <c r="J31" t="n">
-        <v>8214837</v>
+        <v>4417543</v>
       </c>
       <c r="K31" t="n">
-        <v>4417543</v>
+        <v>2895330</v>
       </c>
       <c r="L31" t="n">
-        <v>2895330</v>
+        <v>5118789</v>
       </c>
       <c r="M31" t="n">
         <v>5118789</v>
       </c>
       <c r="N31" t="n">
-        <v>5118789</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>5869946</v>
       </c>
       <c r="P31" t="n">
-        <v>5869946</v>
+        <v>4860748</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860748</v>
+        <v>9389575</v>
       </c>
       <c r="R31" t="n">
-        <v>9389575</v>
+        <v>45537131</v>
       </c>
       <c r="S31" t="n">
-        <v>45537131</v>
+        <v>44570111</v>
       </c>
       <c r="T31" t="n">
         <v>44570111</v>
       </c>
-      <c r="U31" t="n">
-        <v>44570111</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="s"/>
       <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="X31" t="n">
+        <v>3</v>
+      </c>
       <c r="Y31" t="n">
         <v>3</v>
       </c>
       <c r="Z31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>2167899</v>
       </c>
       <c r="AB31" t="n">
-        <v>2167899</v>
+        <v>0</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD31" t="n">
         <v>304677238</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:29">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="E32" t="n">
+        <v>10468463</v>
       </c>
       <c r="F32" t="n">
-        <v>10468463</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>6082376</v>
       </c>
       <c r="H32" t="n">
-        <v>6082376</v>
+        <v>215786443</v>
       </c>
       <c r="I32" t="n">
-        <v>215786443</v>
+        <v>237648251</v>
       </c>
       <c r="J32" t="n">
-        <v>237648251</v>
+        <v>8177417</v>
       </c>
       <c r="K32" t="n">
-        <v>8177417</v>
+        <v>8160324</v>
       </c>
       <c r="L32" t="n">
-        <v>8160324</v>
+        <v>163517403</v>
       </c>
       <c r="M32" t="n">
         <v>163517403</v>
       </c>
       <c r="N32" t="n">
-        <v>163517403</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>246243570</v>
       </c>
       <c r="P32" t="n">
-        <v>246243570</v>
+        <v>207213325</v>
       </c>
       <c r="Q32" t="n">
-        <v>207213325</v>
+        <v>1787681231</v>
       </c>
       <c r="R32" t="n">
-        <v>1787681231</v>
+        <v>3031459076</v>
       </c>
       <c r="S32" t="n">
-        <v>3031459076</v>
+        <v>3790416381</v>
       </c>
       <c r="T32" t="n">
-        <v>3790416381</v>
+        <v>3621987272</v>
       </c>
       <c r="U32" t="n">
-        <v>3621987272</v>
+        <v>18</v>
       </c>
       <c r="V32" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="W32" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>4027</v>
       </c>
       <c r="Y32" t="n">
-        <v>4027</v>
+        <v>39</v>
       </c>
       <c r="Z32" t="n">
-        <v>39</v>
+        <v>9039120798</v>
       </c>
       <c r="AA32" t="n">
-        <v>9039120798</v>
+        <v>3009279424</v>
       </c>
       <c r="AB32" t="n">
-        <v>3009279424</v>
+        <v>244013201347</v>
       </c>
       <c r="AC32" t="n">
-        <v>244013201347</v>
-      </c>
-      <c r="AD32" t="n">
         <v>8211625550</v>
       </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:29">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="E33" t="n">
+        <v>5739929</v>
       </c>
       <c r="F33" t="n">
-        <v>5739929</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>38927416</v>
       </c>
       <c r="H33" t="n">
-        <v>38927416</v>
+        <v>93495000</v>
       </c>
       <c r="I33" t="n">
-        <v>93495000</v>
+        <v>164582713</v>
       </c>
       <c r="J33" t="n">
-        <v>164582713</v>
+        <v>52335748</v>
       </c>
       <c r="K33" t="n">
-        <v>52335748</v>
+        <v>32011021</v>
       </c>
       <c r="L33" t="n">
-        <v>32011021</v>
+        <v>813000000</v>
       </c>
       <c r="M33" t="n">
         <v>813000000</v>
       </c>
       <c r="N33" t="n">
-        <v>813000000</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>92007917</v>
       </c>
       <c r="P33" t="n">
-        <v>92007917</v>
+        <v>71013141</v>
       </c>
       <c r="Q33" t="n">
-        <v>71013141</v>
+        <v>802165733</v>
       </c>
       <c r="R33" t="n">
-        <v>802165733</v>
+        <v>1643309204</v>
       </c>
       <c r="S33" t="n">
-        <v>1643309204</v>
+        <v>2174033708</v>
       </c>
       <c r="T33" t="n">
-        <v>2174033708</v>
+        <v>2087223878</v>
       </c>
       <c r="U33" t="n">
-        <v>2087223878</v>
+        <v>12</v>
       </c>
       <c r="V33" t="n">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="W33" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="Y33" t="n">
-        <v>246</v>
+        <v>195</v>
       </c>
       <c r="Z33" t="n">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>227599190</v>
       </c>
       <c r="AB33" t="n">
-        <v>227599190</v>
+        <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD33" t="n">
         <v>9201710827</v>
       </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:29">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" t="s">
         <v>32</v>
       </c>
+      <c r="E34" t="n">
+        <v>517038</v>
+      </c>
       <c r="F34" t="n">
-        <v>517038</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1953950</v>
       </c>
       <c r="H34" t="n">
-        <v>1953950</v>
+        <v>6328208</v>
       </c>
       <c r="I34" t="n">
-        <v>6328208</v>
+        <v>7723451</v>
       </c>
       <c r="J34" t="n">
-        <v>7723451</v>
+        <v>2626977</v>
       </c>
       <c r="K34" t="n">
-        <v>2626977</v>
+        <v>1682329</v>
       </c>
       <c r="L34" t="n">
-        <v>1682329</v>
+        <v>5502789</v>
       </c>
       <c r="M34" t="n">
         <v>5502789</v>
       </c>
       <c r="N34" t="n">
-        <v>5502789</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>5870839</v>
       </c>
       <c r="P34" t="n">
-        <v>5870839</v>
+        <v>5372463</v>
       </c>
       <c r="Q34" t="n">
-        <v>5372463</v>
+        <v>12821517</v>
       </c>
       <c r="R34" t="n">
-        <v>12821517</v>
+        <v>53603479</v>
       </c>
       <c r="S34" t="n">
-        <v>53603479</v>
+        <v>58580315</v>
       </c>
       <c r="T34" t="n">
-        <v>58580315</v>
-      </c>
-      <c r="U34" t="n">
         <v>45756133</v>
       </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="s"/>
       <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="X34" t="n">
+        <v>22</v>
+      </c>
       <c r="Y34" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z34" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>4979877</v>
       </c>
       <c r="AB34" t="n">
-        <v>4979877</v>
+        <v>0</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD34" t="n">
         <v>314057493</v>
       </c>
     </row>
